--- a/insect-HP.xlsx
+++ b/insect-HP.xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotaro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotaro\Documents\FV-Adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="4170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="4170" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="insect hp" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="insect att, spd, water" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>Insect Name</t>
   </si>
@@ -121,6 +123,111 @@
   </si>
   <si>
     <t>beetle 3</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Water Rewarded</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>insects given a value for their attack are insects that appeared in hard mode (lagay sa docu)</t>
+  </si>
+  <si>
+    <t>level 1</t>
+  </si>
+  <si>
+    <t>level 2</t>
+  </si>
+  <si>
+    <t>level 3</t>
+  </si>
+  <si>
+    <t>level 4</t>
+  </si>
+  <si>
+    <t>level 5</t>
+  </si>
+  <si>
+    <t>level 6</t>
+  </si>
+  <si>
+    <t>level 7</t>
+  </si>
+  <si>
+    <t>level 8</t>
+  </si>
+  <si>
+    <t>level 9</t>
+  </si>
+  <si>
+    <t>level 10</t>
+  </si>
+  <si>
+    <t>level 11</t>
+  </si>
+  <si>
+    <t>level 12</t>
+  </si>
+  <si>
+    <t>level 13</t>
+  </si>
+  <si>
+    <t>level 14</t>
+  </si>
+  <si>
+    <t>level 15</t>
+  </si>
+  <si>
+    <t>level 16</t>
+  </si>
+  <si>
+    <t>level 17</t>
+  </si>
+  <si>
+    <t>level 18</t>
+  </si>
+  <si>
+    <t>level 19</t>
+  </si>
+  <si>
+    <t>level 20</t>
+  </si>
+  <si>
+    <t>level 21</t>
+  </si>
+  <si>
+    <t>level 22</t>
+  </si>
+  <si>
+    <t>level 23</t>
+  </si>
+  <si>
+    <t>level 24</t>
+  </si>
+  <si>
+    <t>level 25</t>
+  </si>
+  <si>
+    <t>level 26</t>
+  </si>
+  <si>
+    <t>level 27</t>
+  </si>
+  <si>
+    <t>level 28</t>
+  </si>
+  <si>
+    <t>level 29</t>
+  </si>
+  <si>
+    <t>level 30</t>
   </si>
 </sst>
 </file>
@@ -142,7 +249,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +352,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -317,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -448,12 +573,46 @@
     <xf numFmtId="2" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF66"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -754,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -941,16 +1100,16 @@
       <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4">
         <v>11</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="4">
         <v>13</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="4">
         <v>15</v>
       </c>
       <c r="F4" s="13">
@@ -1039,15 +1198,21 @@
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>15</v>
+      <c r="B5" s="30" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="13">
+        <v>20</v>
+      </c>
+      <c r="G5" s="13">
+        <v>23</v>
+      </c>
+      <c r="H5" s="13">
+        <v>25</v>
+      </c>
       <c r="I5" s="19">
         <v>28</v>
       </c>
@@ -1125,8 +1290,8 @@
       <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>16</v>
+      <c r="B6" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1134,9 +1299,15 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="19">
+        <v>30</v>
+      </c>
+      <c r="J6" s="19">
+        <v>31</v>
+      </c>
+      <c r="K6" s="19">
+        <v>33</v>
+      </c>
       <c r="L6" s="21">
         <v>45</v>
       </c>
@@ -1239,8 +1410,8 @@
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>17</v>
+      <c r="B8" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1251,9 +1422,15 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="L8" s="21">
+        <v>40</v>
+      </c>
+      <c r="M8" s="21">
+        <v>43</v>
+      </c>
+      <c r="N8" s="21">
+        <v>45</v>
+      </c>
       <c r="O8" s="15">
         <v>48</v>
       </c>
@@ -1313,8 +1490,8 @@
       <c r="A9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>18</v>
+      <c r="B9" s="33" t="s">
+        <v>16</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1328,9 +1505,15 @@
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="O9" s="15">
+        <v>50</v>
+      </c>
+      <c r="P9" s="15">
+        <v>53</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>58</v>
+      </c>
       <c r="R9" s="14">
         <v>66</v>
       </c>
@@ -1970,7 +2153,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="5">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="2"/>
@@ -2013,7 +2196,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
@@ -2056,7 +2239,7 @@
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
       <c r="AF26" s="12">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
@@ -2083,4 +2266,512 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="100" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="47"/>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="47"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="49"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="47"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="47"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="47"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="47"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="47"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="48"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="47"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="48"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="47"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="48"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="48"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="47"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="48"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="53"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/insect-HP.xlsx
+++ b/insect-HP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="4170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="4170" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="insect hp" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>Insect Name</t>
   </si>
@@ -113,9 +113,6 @@
     <t>prideful worm</t>
   </si>
   <si>
-    <t>beetle 1</t>
-  </si>
-  <si>
     <t>boss caterpillar</t>
   </si>
   <si>
@@ -140,94 +137,100 @@
     <t>insects given a value for their attack are insects that appeared in hard mode (lagay sa docu)</t>
   </si>
   <si>
-    <t>level 1</t>
-  </si>
-  <si>
-    <t>level 2</t>
-  </si>
-  <si>
-    <t>level 3</t>
-  </si>
-  <si>
-    <t>level 4</t>
-  </si>
-  <si>
-    <t>level 5</t>
-  </si>
-  <si>
-    <t>level 6</t>
-  </si>
-  <si>
-    <t>level 7</t>
-  </si>
-  <si>
-    <t>level 8</t>
-  </si>
-  <si>
-    <t>level 9</t>
-  </si>
-  <si>
-    <t>level 10</t>
-  </si>
-  <si>
-    <t>level 11</t>
-  </si>
-  <si>
-    <t>level 12</t>
-  </si>
-  <si>
-    <t>level 13</t>
-  </si>
-  <si>
-    <t>level 14</t>
-  </si>
-  <si>
-    <t>level 15</t>
-  </si>
-  <si>
-    <t>level 16</t>
-  </si>
-  <si>
-    <t>level 17</t>
-  </si>
-  <si>
-    <t>level 18</t>
-  </si>
-  <si>
-    <t>level 19</t>
-  </si>
-  <si>
-    <t>level 20</t>
-  </si>
-  <si>
-    <t>level 21</t>
-  </si>
-  <si>
-    <t>level 22</t>
-  </si>
-  <si>
-    <t>level 23</t>
-  </si>
-  <si>
-    <t>level 24</t>
-  </si>
-  <si>
-    <t>level 25</t>
-  </si>
-  <si>
-    <t>level 26</t>
-  </si>
-  <si>
-    <t>level 27</t>
-  </si>
-  <si>
-    <t>level 28</t>
-  </si>
-  <si>
-    <t>level 29</t>
-  </si>
-  <si>
-    <t>level 30</t>
+    <t># of waves</t>
+  </si>
+  <si>
+    <t>Level 1-1</t>
+  </si>
+  <si>
+    <t>Level 1-2</t>
+  </si>
+  <si>
+    <t>Level 1-3</t>
+  </si>
+  <si>
+    <t>Level 2-1</t>
+  </si>
+  <si>
+    <t>Level 2-2</t>
+  </si>
+  <si>
+    <t>Level 2-3</t>
+  </si>
+  <si>
+    <t>Level 3-1</t>
+  </si>
+  <si>
+    <t>Level 3-2</t>
+  </si>
+  <si>
+    <t>Level 3-3</t>
+  </si>
+  <si>
+    <t>Level 4-1</t>
+  </si>
+  <si>
+    <t>Level 4-2</t>
+  </si>
+  <si>
+    <t>Level 4-3</t>
+  </si>
+  <si>
+    <t>Level 5-1</t>
+  </si>
+  <si>
+    <t>Level 5-2</t>
+  </si>
+  <si>
+    <t>Level 5-3</t>
+  </si>
+  <si>
+    <t>Level 6-1</t>
+  </si>
+  <si>
+    <t>Level 6-2</t>
+  </si>
+  <si>
+    <t>Level 6-3</t>
+  </si>
+  <si>
+    <t>Level 7-1</t>
+  </si>
+  <si>
+    <t>Level 7-2</t>
+  </si>
+  <si>
+    <t>Level 7-3</t>
+  </si>
+  <si>
+    <t>Level 8-1</t>
+  </si>
+  <si>
+    <t>Level 8-2</t>
+  </si>
+  <si>
+    <t>Level 8-3</t>
+  </si>
+  <si>
+    <t>Level 9-1</t>
+  </si>
+  <si>
+    <t>Level 9-2</t>
+  </si>
+  <si>
+    <t>Level 9-3</t>
+  </si>
+  <si>
+    <t>Level 10-1</t>
+  </si>
+  <si>
+    <t>Level 10-2</t>
+  </si>
+  <si>
+    <t>Level 10-3</t>
+  </si>
+  <si>
+    <t>boss grasshopper</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,6 +604,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,13 +919,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="27" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="27" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="8"/>
   </cols>
@@ -1852,7 +1858,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -1883,8 +1889,8 @@
       <c r="AF17" s="11"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>27</v>
+      <c r="A18" s="54" t="s">
+        <v>28</v>
       </c>
       <c r="B18" s="30" t="s">
         <v>14</v>
@@ -1924,7 +1930,7 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="31" t="s">
         <v>15</v>
@@ -1964,7 +1970,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>16</v>
@@ -2004,7 +2010,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="34" t="s">
         <v>17</v>
@@ -2044,7 +2050,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>18</v>
@@ -2084,7 +2090,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="36" t="s">
         <v>20</v>
@@ -2124,7 +2130,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>19</v>
@@ -2270,251 +2276,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1">
-        <v>3</v>
+      <c r="B1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>32</v>
       </c>
     </row>
@@ -2527,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="47" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2563,27 +2578,41 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="44">
+        <v>30</v>
+      </c>
+      <c r="C3" s="50">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>36</v>
+      </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="44">
+        <v>30</v>
+      </c>
+      <c r="C4" s="50">
+        <v>1.2</v>
+      </c>
       <c r="D4" s="47"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="44">
+        <v>40</v>
+      </c>
+      <c r="C5" s="50">
+        <v>1</v>
+      </c>
       <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -2673,79 +2702,95 @@
         <v>26</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="50"/>
+        <v>36</v>
+      </c>
+      <c r="C17" s="50">
+        <v>1</v>
+      </c>
       <c r="D17" s="47"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>27</v>
+      <c r="A18" s="54" t="s">
+        <v>28</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="51">
+        <v>1</v>
+      </c>
       <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="50"/>
+        <v>36</v>
+      </c>
+      <c r="C19" s="50">
+        <v>1.2</v>
+      </c>
       <c r="D19" s="47"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="C20" s="51">
+        <v>1</v>
+      </c>
       <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="50"/>
+        <v>36</v>
+      </c>
+      <c r="C21" s="50">
+        <v>0.8</v>
+      </c>
       <c r="D21" s="47"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="C22" s="51">
+        <v>0.8</v>
+      </c>
       <c r="D22" s="48"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="50"/>
+        <v>36</v>
+      </c>
+      <c r="C23" s="50">
+        <v>1</v>
+      </c>
       <c r="D23" s="47"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="C24" s="51">
+        <v>1</v>
+      </c>
       <c r="D24" s="48"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2753,9 +2798,11 @@
         <v>10</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="50"/>
+        <v>36</v>
+      </c>
+      <c r="C25" s="50">
+        <v>1</v>
+      </c>
       <c r="D25" s="47"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2763,9 +2810,11 @@
         <v>11</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="C26" s="51">
+        <v>0.8</v>
+      </c>
       <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">

--- a/insect-HP.xlsx
+++ b/insect-HP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="4170" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15585" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="insect hp" sheetId="1" r:id="rId1"/>
@@ -919,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2279,7 +2279,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,7 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/insect-HP.xlsx
+++ b/insect-HP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>Insect Name</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>boss grasshopper</t>
+  </si>
+  <si>
+    <t>beetle 1</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
   <dimension ref="A1:AF35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1970,7 +1973,7 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>16</v>
